--- a/ref/API Enhancements 1.1.xlsx
+++ b/ref/API Enhancements 1.1.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
   <si>
     <t>date : 24/10/2019</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>I don't have any issue on this</t>
+  </si>
+  <si>
+    <t>This is a required validation, if I remove it, it means no validation for description, user can simply enter empty text</t>
   </si>
 </sst>
 </file>
@@ -1434,10 +1437,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L34"/>
+  <dimension ref="A2:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1537,7 +1540,7 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -1545,12 +1548,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>25</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M37" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
